--- a/SHAP/all_ozone_VTZP_shap.xlsx
+++ b/SHAP/all_ozone_VTZP_shap.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,200 +444,280 @@
           <t>shap</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>rename</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SCFOCCr2</t>
+          <t>pair_energy</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.597844898147275e-07</v>
+        <v>8.599065709946049e-09</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>$\left(\varepsilon_{pq}^{\text{MP2}}\right)$</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SCFOCCr4</t>
+          <t>SCFOCCp</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.603664315536738e-07</v>
+        <v>4.033161671179194e-08</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>$\omega_{p}$</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SCFOCCp</t>
+          <t>SCFOCCr2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.688192043402376e-07</v>
+        <v>1.281829528087941e-07</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>$(\omega_{p})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SCFOCCr1</t>
+          <t>SCFOCCs3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.695405317120135e-07</v>
+        <v>1.898581380224087e-07</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>$(\omega_{p})_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SCFOCCr3</t>
+          <t>SCFOCCs4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4.261990423240499e-07</v>
+        <v>2.078943989002886e-07</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>$(\omega_{p})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SCFOCCs1</t>
+          <t>occs3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7.988452061078857e-07</v>
+        <v>2.200164282053465e-07</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>$(\eta_{s})_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SCFOCCq</t>
+          <t>SCFOCCs2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8.322966735780436e-07</v>
+        <v>2.280898540405922e-07</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>$(\omega_{p})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>occs3</t>
+          <t>SCFOCCs1</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8.367153911772413e-07</v>
+        <v>2.539447511319826e-07</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>$(\omega_{p})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SCFOCCs2</t>
+          <t>SCFOCCr4</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8.531317416790741e-07</v>
+        <v>2.676074337591841e-07</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>$(\omega_{p})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SCFOCCs3</t>
+          <t>hqq</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8.900340316095335e-07</v>
+        <v>3.487668573288646e-07</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>$h_{qq}$</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SCFOCCs4</t>
+          <t>SCFOCCr3</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>9.789533136161923e-07</v>
+        <v>3.535338177328152e-07</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>$(\omega_{p})_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>occr4</t>
+          <t>SCFOCCr1</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.648096531048997e-06</v>
+        <v>3.884386665187027e-07</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>$(\omega_{p})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>hqq</t>
+          <t>SCFOCCq</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.027733857225228e-06</v>
+        <v>3.911003159696161e-07</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>$\omega_{p}$</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>occs4</t>
+          <t>SCFFq</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.050577571718859e-06</v>
+        <v>2.99011566345325e-06</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>$F_{q}^{\text{SCF}}$</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SCFFq</t>
+          <t>occs2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.876252488697807e-06</v>
+        <v>4.965390053473017e-06</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>$(\eta_{s})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -650,7 +730,12 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3.052879341228043e-06</v>
+        <v>1.137741631172372e-05</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>$(\eta_{s})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -663,462 +748,642 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3.291529831933799e-06</v>
+        <v>1.632916089462153e-05</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>$\mathbf{b}$</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SCFFr1</t>
+          <t>Fs2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.250287153862184e-05</v>
+        <v>1.667501288356461e-05</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>$(F_{s})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>eijab_1</t>
+          <t>occs4</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.614006011673111e-05</v>
+        <v>1.779033012562821e-05</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>$(\eta_{s})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SCFFp</t>
+          <t>eijab_4</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.777204017358404e-05</v>
+        <v>1.79963552426554e-05</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>$(e^{rs}_{pq})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>occr3</t>
+          <t>occp</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.969255208245959e-05</v>
+        <v>1.835565339829359e-05</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>$\eta_{p}$</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SCFFr4</t>
+          <t>Fr2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2.218639379737655e-05</v>
+        <v>2.620094815180459e-05</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>$(F_{r})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>hss4</t>
+          <t>screenvirt_4</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2.376538697915714e-05</v>
+        <v>3.203442550937291e-05</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>$(\langle ss \vert \vert rr \rangle)_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SCFFr3</t>
+          <t>eijab_2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2.592184142430613e-05</v>
+        <v>3.218592074617974e-05</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>$(e^{rs}_{pq})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>occr2</t>
+          <t>SCFFs2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2.610344058950672e-05</v>
+        <v>3.22585281992085e-05</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>$(F_{s}^{\text{SCF}})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>occr1</t>
+          <t>hss2</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2.675272223671154e-05</v>
+        <v>3.421460229764721e-05</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>$(h_{ss})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>hss1</t>
+          <t>hss4</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2.834894233205534e-05</v>
+        <v>4.152585970472261e-05</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>$(h_{ss})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SCFFs4</t>
+          <t>eijab_3</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2.878458200330295e-05</v>
+        <v>4.403607992682924e-05</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>$(e^{rs}_{pq})_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fs4</t>
+          <t>hss3</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2.996363097609948e-05</v>
+        <v>4.637775434270387e-05</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>$(h_{ss})_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SCFFs2</t>
+          <t>occr2</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3.007895217553076e-05</v>
+        <v>4.840032303823423e-05</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>$(\eta_{r})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>screenvirt_1</t>
+          <t>occr1</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3.237748680865258e-05</v>
+        <v>4.861308295621949e-05</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>$(\eta_{r})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SCFFr2</t>
+          <t>hrr1</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3.286468658428329e-05</v>
+        <v>5.047183029967487e-05</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>$(h_{rr})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SCFFs1</t>
+          <t>SCFFr2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4.043244301164756e-05</v>
+        <v>5.618717644894813e-05</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>$(F_{r}^{\text{SCF}})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fr2</t>
+          <t>screen1_3</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4.086173234708741e-05</v>
+        <v>6.748331070874053e-05</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>$(\langle pp \vert \vert rr \rangle)_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>eijab_2</t>
+          <t>SCFFr4</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4.110389936900869e-05</v>
+        <v>6.848031965627506e-05</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>$(F_{r}^{\text{SCF}})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>hrr4</t>
+          <t>occr4</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4.164373802535853e-05</v>
+        <v>6.860151238972551e-05</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>$(\eta_{r})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>hss2</t>
+          <t>SCFFs3</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4.301147725538466e-05</v>
+        <v>7.343425400549137e-05</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>$(F_{s}^{\text{SCF}})_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>occp</t>
+          <t>Fs4</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4.409374556686506e-05</v>
+        <v>7.366839851843096e-05</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>$(F_{s})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Fp</t>
+          <t>Fs3</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4.524476059501594e-05</v>
+        <v>7.942505582164792e-05</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>$(F_{s})_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>occq</t>
+          <t>hss1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5.242787527310472e-05</v>
+        <v>8.448603622286052e-05</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>$(h_{ss})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>screenvirt_2</t>
+          <t>hrr3</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5.333293559220791e-05</v>
+        <v>8.761297843121861e-05</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>$(h_{rr})_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>screenvirt_4</t>
+          <t>Fs1</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5.349836433829822e-05</v>
+        <v>8.886283890297048e-05</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>$(F_{s})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>occs2</t>
+          <t>eijab_1</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5.927276650669554e-05</v>
+        <v>9.138402687976685e-05</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>$(e^{rs}_{pq})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>screen2_3</t>
+          <t>hrr4</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5.944768213043668e-05</v>
+        <v>9.80941093322254e-05</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>$(h_{rr})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>eijab_3</t>
+          <t>screenvirt_3</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>7.698405454093663e-05</v>
+        <v>0.0001033953989581824</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>$(\langle ss \vert \vert rr \rangle)_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Fq</t>
+          <t>SCFFs4</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>7.993898065510895e-05</v>
+        <v>0.0001088417929803504</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>$(F_{s}^{\text{SCF}})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>hrr3</t>
+          <t>screen1_1</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.0001151549767427218</v>
+        <v>0.0001235668008816771</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>$(\langle pp \vert \vert rr \rangle)_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>hrr1</t>
+          <t>SCFFr1</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.0001252679093498097</v>
+        <v>0.0001263330810008015</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>$(F_{r}^{\text{SCF}})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>screen1_4</t>
+          <t>screen2_3</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.000128373377527682</v>
+        <v>0.0001475139073027967</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>$(\langle qq \vert \vert ss \rangle)_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Fr4</t>
+          <t>hrr2</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.0001303813188558232</v>
+        <v>0.0001601035790009357</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>$(h_{rr})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>screen1_1</t>
+          <t>screenvirt_1</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.0001338215780401426</v>
+        <v>0.0001650525225312486</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>$(\langle ss \vert \vert rr \rangle)_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SCFFs3</t>
+          <t>screen2_2</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.0001346781421790739</v>
+        <v>0.0001793200531106027</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>$(\langle qq \vert \vert ss \rangle)_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -1131,215 +1396,300 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.0001515648214806348</v>
+        <v>0.0001841803903263301</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>$(\langle qq \vert \vert ss \rangle)_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>screenvirt_3</t>
+          <t>SCFFs1</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.0001865239136441938</v>
+        <v>0.0001885269457023166</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>$(F_{s}^{\text{SCF}})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>hpp</t>
+          <t>Fr3</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.00022743450067532</v>
+        <v>0.0002409746391146895</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>$(F_{r})_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>hss3</t>
+          <t>screen1_4</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.0002365594043608894</v>
+        <v>0.0002619603107121422</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>$(\langle pp \vert \vert rr \rangle)_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Fs1</t>
+          <t>SCFFp</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.0003167322938109871</v>
+        <v>0.0003144343292138878</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>$F_{p}^{\text{SCF}}$</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>eijab_4</t>
+          <t>screen2_1</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.0003780434922468058</v>
+        <v>0.0003517492990990623</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>$(\langle qq \vert \vert ss \rangle)_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Fs2</t>
+          <t>Fr1</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.0004281130099767717</v>
+        <v>0.0004010985483623878</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>$(F_{r})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>hrr2</t>
+          <t>screenvirt_2</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.0004968171084501372</v>
+        <v>0.0004471959729984548</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>$(\langle ss \vert \vert rr \rangle)_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>screen2_1</t>
+          <t>Fq</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.0005335538794667838</v>
+        <v>0.0004916753225051912</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>$F_{q}$</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>coulomb</t>
+          <t>occr3</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.0006055749973610047</v>
+        <v>0.0004999630720790536</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>$(\eta_{r})_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pair_energy</t>
+          <t>screen1_2</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.0006186002214349645</v>
+        <v>0.0007883970718058197</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>$(\langle pp \vert \vert rr \rangle)_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Fr1</t>
+          <t>Fp</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.0007345201200872914</v>
+        <v>0.00151652707486342</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>$F_{p}$</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Fr3</t>
+          <t>Fr4</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.001041086799503901</v>
+        <v>0.002364669119608438</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>$(F_{r})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Fs3</t>
+          <t>occq</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.001047107107930074</v>
+        <v>0.002727938032168187</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>$\eta_{q}$</t>
+        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>screen1_3</t>
+          <t>hpp</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.001478927963905534</v>
+        <v>0.002750638540069508</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>$h_{pp}$</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>screen2_2</t>
+          <t>coulomb</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.001795101664658163</v>
+        <v>0.003634297862900921</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>$\langle pp \vert \vert qq \rangle$</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>screen1_2</t>
+          <t>SCFFr3</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.002490391558346899</v>
+        <v>0.006204654913638819</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>$(F_{r}^{\text{SCF}})_{3}$</t>
+        </is>
       </c>
     </row>
   </sheetData>
